--- a/out.xlsx
+++ b/out.xlsx
@@ -179,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill/>
     </fill>
@@ -394,6 +394,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00CC0000"/>
         <bgColor rgb="00CC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003cb371"/>
+        <bgColor rgb="003cb371"/>
       </patternFill>
     </fill>
   </fills>
@@ -645,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -681,6 +687,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,9 +1161,9 @@
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>贪婪 : 75</t>
+      <c r="A1" s="13" t="inlineStr">
+        <is>
+          <t>Extreme Greed : 83</t>
         </is>
       </c>
     </row>
@@ -1234,7 +1243,7 @@
         <v>3353</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>11696.0239508</v>
+        <v>11907.4278659</v>
       </c>
       <c r="G3" s="6">
         <f>(F3-C3)/C3</f>
@@ -1248,11 +1257,11 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>216089013301.2091</v>
+        <v>220017331240.2957</v>
       </c>
       <c r="K3" s="8" t="inlineStr">
         <is>
-          <t>6.8453</t>
+          <t>6.8273</t>
         </is>
       </c>
       <c r="M3" s="5" t="n"/>
@@ -1277,7 +1286,7 @@
         <v>101.03</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>425.625971907</v>
+        <v>473.133048883</v>
       </c>
       <c r="G4" s="6">
         <f>(F4-C4)/C4</f>
@@ -1291,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>47841509230.09402</v>
+        <v>53194058152.17973</v>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
@@ -1318,7 +1327,7 @@
         <v>0.175</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.284122815466</v>
+        <v>0.299952328206</v>
       </c>
       <c r="G5" s="6">
         <f>(F5-C5)/C5</f>
@@ -1332,10 +1341,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>12784067247.41801</v>
+        <v>13496314009.54485</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>6.89</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="6">
@@ -1357,7 +1366,7 @@
         <v>101.06</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>279.145264106</v>
+        <v>289.275173984</v>
       </c>
       <c r="G6" s="6">
         <f>(F6-C6)/C6</f>
@@ -1371,7 +1380,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>5165426093.070471</v>
+        <v>5353384224.782701</v>
       </c>
       <c r="K6" s="4" t="inlineStr">
         <is>
@@ -1398,7 +1407,7 @@
         <v>29.2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>62.4236401254</v>
+        <v>62.6756238154</v>
       </c>
       <c r="G7" s="6">
         <f>(F7-C7)/C7</f>
@@ -1412,7 +1421,7 @@
         <v>7</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>4079597079.593632</v>
+        <v>4096689972.522985</v>
       </c>
       <c r="K7" s="10">
         <f>(K5-K3)/K3</f>
@@ -1438,7 +1447,7 @@
         <v>2.1481</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>3.27677877944</v>
+        <v>3.4695145948</v>
       </c>
       <c r="G8" s="6">
         <f>(F8-C8)/C8</f>
@@ -1452,7 +1461,7 @@
         <v>11</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>3065912190.03817</v>
+        <v>3246433707.627551</v>
       </c>
     </row>
     <row r="9">
@@ -1474,7 +1483,7 @@
         <v>5.37</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>23.5744945633</v>
+        <v>25.1305307401</v>
       </c>
       <c r="G9" s="6">
         <f>(F9-C9)/C9</f>
@@ -1485,10 +1494,10 @@
         <v/>
       </c>
       <c r="I9" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>3404311663.624855</v>
+        <v>3629013495.152095</v>
       </c>
     </row>
     <row r="10">
@@ -1510,7 +1519,7 @@
         <v>0.0303</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>0.117090530384</v>
+        <v>0.124490567617</v>
       </c>
       <c r="G10" s="6">
         <f>(F10-C10)/C10</f>
@@ -1524,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>3035814440.5978</v>
+        <v>3227675727.921618</v>
       </c>
     </row>
     <row r="11">
@@ -1546,7 +1555,7 @@
         <v>0.04213</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.09797790777650001</v>
+        <v>0.0984863494471</v>
       </c>
       <c r="G11" s="6">
         <f>(F11-C11)/C11</f>
@@ -1557,10 +1566,10 @@
         <v/>
       </c>
       <c r="I11" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>2019017872.067558</v>
+        <v>2029741460.516861</v>
       </c>
     </row>
     <row r="12">
@@ -1582,7 +1591,7 @@
         <v>0.01105</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>0.0266651571313</v>
+        <v>0.0343212554833</v>
       </c>
       <c r="G12" s="6">
         <f>(F12-C12)/C12</f>
@@ -1593,10 +1602,10 @@
         <v/>
       </c>
       <c r="I12" s="7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>1910816023.732571</v>
+        <v>2459449408.424008</v>
       </c>
     </row>
     <row r="13">
@@ -1618,7 +1627,7 @@
         <v>3.36</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>6.69162244176</v>
+        <v>6.74298168814</v>
       </c>
       <c r="G13" s="6">
         <f>(F13-C13)/C13</f>
@@ -1632,7 +1641,7 @@
         <v>30</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>778324681.863541</v>
+        <v>784298445.2441527</v>
       </c>
     </row>
     <row r="14">
@@ -1654,7 +1663,7 @@
         <v>0.88</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>4.89616150229</v>
+        <v>4.9767093188</v>
       </c>
       <c r="G14" s="6">
         <f>(F14-C14)/C14</f>
@@ -1665,10 +1674,10 @@
         <v/>
       </c>
       <c r="I14" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1046371599.394091</v>
+        <v>1063585685.888144</v>
       </c>
     </row>
     <row r="15">
@@ -1690,7 +1699,7 @@
         <v>6.37</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>21.3073003929</v>
+        <v>21.3730253033</v>
       </c>
       <c r="G15" s="6">
         <f>(F15-C15)/C15</f>
@@ -1704,7 +1713,7 @@
         <v>18</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>1502992061.481007</v>
+        <v>1507628219.828202</v>
       </c>
     </row>
     <row r="16">
@@ -1726,7 +1735,7 @@
         <v>0.1495</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.368062848344</v>
+        <v>0.362850617073</v>
       </c>
       <c r="G16" s="6">
         <f>(F16-C16)/C16</f>
@@ -1737,10 +1746,10 @@
         <v/>
       </c>
       <c r="I16" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1023041833.019384</v>
+        <v>1008554278.35964</v>
       </c>
     </row>
     <row r="17">
@@ -1762,7 +1771,7 @@
         <v>25.12</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>80.9401769001</v>
+        <v>83.0258280476</v>
       </c>
       <c r="G17" s="6">
         <f>(F17-C17)/C17</f>
@@ -1776,7 +1785,7 @@
         <v>29</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>803835614.2108012</v>
+        <v>825702238.161888</v>
       </c>
     </row>
     <row r="18">
@@ -1798,7 +1807,7 @@
         <v>0.58</v>
       </c>
       <c r="F18" s="8" t="n">
-        <v>5.50899426056</v>
+        <v>5.79210238584</v>
       </c>
       <c r="G18" s="6">
         <f>(F18-C18)/C18</f>
@@ -1809,10 +1818,10 @@
         <v/>
       </c>
       <c r="I18" s="8" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J18" s="11" t="n">
-        <v>330539655.6336</v>
+        <v>347526143.1504</v>
       </c>
     </row>
     <row r="19">
@@ -1834,7 +1843,7 @@
         <v>1.33</v>
       </c>
       <c r="F19" s="1" t="n">
-        <v>3.46985384299</v>
+        <v>3.53248476941</v>
       </c>
       <c r="G19" s="6">
         <f>(F19-C19)/C19</f>
@@ -1848,7 +1857,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>336530477.532344</v>
+        <v>342623383.262831</v>
       </c>
     </row>
     <row r="20">
@@ -1870,7 +1879,7 @@
         <v>0.0001835</v>
       </c>
       <c r="F20" s="8" t="n">
-        <v>0.00190799435109</v>
+        <v>0.0019161287824</v>
       </c>
       <c r="G20" s="6">
         <f>(F20-C20)/C20</f>
@@ -1881,10 +1890,10 @@
         <v/>
       </c>
       <c r="I20" s="8" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J20" s="11" t="n">
-        <v>95399717.55390128</v>
+        <v>95806439.11939873</v>
       </c>
     </row>
     <row r="21">
@@ -1906,7 +1915,7 @@
         <v>0.0464</v>
       </c>
       <c r="F21" s="8" t="n">
-        <v>0.132421202759</v>
+        <v>0.125036321863</v>
       </c>
       <c r="G21" s="6">
         <f>(F21-C21)/C21</f>
@@ -1917,10 +1926,10 @@
         <v/>
       </c>
       <c r="I21" s="8" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J21" s="11" t="n">
-        <v>72100722.96066868</v>
+        <v>68079801.53353839</v>
       </c>
     </row>
     <row r="22">
@@ -1942,7 +1951,7 @@
         <v>0.0941</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>0.270001053971</v>
+        <v>0.271084478114</v>
       </c>
       <c r="G22" s="6">
         <f>(F22-C22)/C22</f>
@@ -1953,10 +1962,10 @@
         <v/>
       </c>
       <c r="I22" s="8" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J22" s="11" t="n">
-        <v>51030199.200519</v>
+        <v>51234966.363546</v>
       </c>
     </row>
     <row r="23">
@@ -1978,7 +1987,7 @@
         <v>0.2726</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.750342296573</v>
+        <v>0.672034733081</v>
       </c>
       <c r="G23" s="6">
         <f>(F23-C23)/C23</f>
@@ -1989,10 +1998,10 @@
         <v/>
       </c>
       <c r="I23" s="1" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>48772249.277245</v>
+        <v>43682257.650265</v>
       </c>
     </row>
     <row r="24">
@@ -2014,7 +2023,7 @@
         <v>0.007166</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.0173057740807</v>
+        <v>0.0170197473348</v>
       </c>
       <c r="G24" s="6">
         <f>(F24-C24)/C24</f>
@@ -2025,10 +2034,10 @@
         <v/>
       </c>
       <c r="I24" s="1" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>25497133.44939759</v>
+        <v>25076762.62867016</v>
       </c>
     </row>
     <row r="25">
@@ -2050,7 +2059,7 @@
         <v>0.0572</v>
       </c>
       <c r="F25" s="8" t="n">
-        <v>0.154028433538</v>
+        <v>0.157521653438</v>
       </c>
       <c r="G25" s="6">
         <f>(F25-C25)/C25</f>
@@ -2061,10 +2070,10 @@
         <v/>
       </c>
       <c r="I25" s="8" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J25" s="11" t="n">
-        <v>38497670.34614491</v>
+        <v>39370761.27531817</v>
       </c>
     </row>
     <row r="26">
@@ -2086,7 +2095,7 @@
         <v>0.08939999999999999</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.6710402288340001</v>
+        <v>0.606577931644</v>
       </c>
       <c r="G26" s="6">
         <f>(F26-C26)/C26</f>
@@ -2097,10 +2106,10 @@
         <v/>
       </c>
       <c r="I26" s="1" t="n">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>132601929.7735443</v>
+        <v>120004992.1263925</v>
       </c>
     </row>
     <row r="27">
@@ -2122,7 +2131,7 @@
         <v>0.0101</v>
       </c>
       <c r="F27" s="8" t="n">
-        <v>0.0186579293362</v>
+        <v>0.0174995171261</v>
       </c>
       <c r="G27" s="6">
         <f>(F27-C27)/C27</f>
@@ -2133,10 +2142,10 @@
         <v/>
       </c>
       <c r="I27" s="8" t="n">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="J27" s="11" t="n">
-        <v>14926343.46896</v>
+        <v>13999613.70088</v>
       </c>
     </row>
     <row r="28">
@@ -2158,7 +2167,7 @@
         <v>0.000748</v>
       </c>
       <c r="F28" s="8" t="n">
-        <v>0.0031568281717</v>
+        <v>0.00290306607216</v>
       </c>
       <c r="G28" s="6">
         <f>(F28-C28)/C28</f>
@@ -2169,10 +2178,10 @@
         <v/>
       </c>
       <c r="I28" s="8" t="n">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="J28" s="11" t="n">
-        <v>29552849.4827455</v>
+        <v>27177239.3056187</v>
       </c>
     </row>
     <row r="29">
@@ -2194,7 +2203,7 @@
         <v>0.004225</v>
       </c>
       <c r="F29" s="8" t="n">
-        <v>0.007836431261029999</v>
+        <v>0.00767590797639</v>
       </c>
       <c r="G29" s="6">
         <f>(F29-C29)/C29</f>
@@ -2205,10 +2214,10 @@
         <v/>
       </c>
       <c r="I29" s="8" t="n">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="J29" s="11" t="n">
-        <v>7683620.851439915</v>
+        <v>7526227.770850395</v>
       </c>
     </row>
     <row r="30">
@@ -2230,7 +2239,7 @@
         <v>0.00139</v>
       </c>
       <c r="F30" s="8" t="n">
-        <v>0.00326310064201</v>
+        <v>0.00292879495684</v>
       </c>
       <c r="G30" s="6">
         <f>(F30-C30)/C30</f>
@@ -2241,10 +2250,10 @@
         <v/>
       </c>
       <c r="I30" s="8" t="n">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="J30" s="11" t="n">
-        <v>11860481.37192076</v>
+        <v>10645371.33196697</v>
       </c>
     </row>
     <row r="31">
@@ -2266,7 +2275,7 @@
         <v>0.00262</v>
       </c>
       <c r="F31" s="8" t="n">
-        <v>0.00563611915102</v>
+        <v>0.008053081646749999</v>
       </c>
       <c r="G31" s="6">
         <f>(F31-C31)/C31</f>
@@ -2277,10 +2286,10 @@
         <v/>
       </c>
       <c r="I31" s="8" t="n">
-        <v>639</v>
+        <v>530</v>
       </c>
       <c r="J31" s="11" t="n">
-        <v>6763340.862453508</v>
+        <v>9663694.948727563</v>
       </c>
     </row>
     <row r="32">
